--- a/xlsx/Slashdot_intext.xlsx
+++ b/xlsx/Slashdot_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>資訊科技</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Slashdot</t>
+    <t>资讯科技</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Slashdot</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU通用公共許可證</t>
+    <t>GNU通用公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原始碼</t>
+    <t>开放原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Windows</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mac_OS_X</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8D%A1%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·卡馬克</t>
+    <t>约翰·卡马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ReiserFS</t>
